--- a/ridership/weekly/2016_28.xlsx
+++ b/ridership/weekly/2016_28.xlsx
@@ -195,7 +195,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>183</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>176</c:v>
@@ -271,7 +271,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>86.2</c:v>
+                  <c:v>86.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.41</c:v>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D2">
-        <v>86.2</v>
+        <v>86.53</v>
       </c>
       <c r="E2">
         <v>66.56</v>
